--- a/RELATORIO DE APONTAMENTOS - EDUARDO VASCONCELOS DA SILVA - 5_10_2022 11_19_53 AM.xlsx
+++ b/RELATORIO DE APONTAMENTOS - EDUARDO VASCONCELOS DA SILVA - 5_10_2022 11_19_53 AM.xlsx
@@ -71,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -81,6 +81,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Bell MT"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -272,9 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -291,6 +295,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -599,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,9 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
@@ -622,7 +627,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -643,12 +648,12 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>44662</v>
       </c>
       <c r="B2" s="2">
@@ -669,12 +674,12 @@
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>44662</v>
       </c>
       <c r="B3" s="2">
@@ -695,12 +700,12 @@
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>44663</v>
       </c>
       <c r="B4" s="2">
@@ -721,12 +726,12 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>44663</v>
       </c>
       <c r="B5" s="2">
@@ -747,12 +752,12 @@
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>44664</v>
       </c>
       <c r="B6" s="2">
@@ -773,12 +778,12 @@
       <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>44664</v>
       </c>
       <c r="B7" s="2">
@@ -799,12 +804,12 @@
       <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>44665</v>
       </c>
       <c r="B8" s="2">
@@ -825,12 +830,12 @@
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>44665</v>
       </c>
       <c r="B9" s="2">
@@ -851,12 +856,12 @@
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>44669</v>
       </c>
       <c r="B10" s="2">
@@ -877,12 +882,12 @@
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>44669</v>
       </c>
       <c r="B11" s="2">
@@ -903,12 +908,12 @@
       <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>44670</v>
       </c>
       <c r="B12" s="2">
@@ -929,12 +934,12 @@
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>44670</v>
       </c>
       <c r="B13" s="2">
@@ -955,12 +960,12 @@
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>44671</v>
       </c>
       <c r="B14" s="2">
@@ -981,12 +986,12 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>44671</v>
       </c>
       <c r="B15" s="2">
@@ -1007,12 +1012,12 @@
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>44673</v>
       </c>
       <c r="B16" s="2">
@@ -1033,12 +1038,12 @@
       <c r="G16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>44673</v>
       </c>
       <c r="B17" s="2">
@@ -1059,12 +1064,12 @@
       <c r="G17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>44674</v>
       </c>
       <c r="B18" s="2">
@@ -1085,12 +1090,12 @@
       <c r="G18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>44675</v>
       </c>
       <c r="B19" s="2">
@@ -1111,12 +1116,12 @@
       <c r="G19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>44676</v>
       </c>
       <c r="B20" s="2">
@@ -1137,12 +1142,12 @@
       <c r="G20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>44676</v>
       </c>
       <c r="B21" s="2">
@@ -1163,12 +1168,12 @@
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>44677</v>
       </c>
       <c r="B22" s="2">
@@ -1189,12 +1194,12 @@
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>44677</v>
       </c>
       <c r="B23" s="2">
@@ -1215,12 +1220,12 @@
       <c r="G23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>44678</v>
       </c>
       <c r="B24" s="2">
@@ -1241,12 +1246,12 @@
       <c r="G24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>44678</v>
       </c>
       <c r="B25" s="2">
@@ -1267,12 +1272,12 @@
       <c r="G25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>44679</v>
       </c>
       <c r="B26" s="2">
@@ -1293,12 +1298,12 @@
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>44679</v>
       </c>
       <c r="B27" s="2">
@@ -1319,12 +1324,12 @@
       <c r="G27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>44680</v>
       </c>
       <c r="B28" s="2">
@@ -1345,12 +1350,12 @@
       <c r="G28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>44680</v>
       </c>
       <c r="B29" s="2">
@@ -1371,12 +1376,12 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>44683</v>
       </c>
       <c r="B30" s="2">
@@ -1397,12 +1402,12 @@
       <c r="G30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>44683</v>
       </c>
       <c r="B31" s="2">
@@ -1423,12 +1428,12 @@
       <c r="G31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>44684</v>
       </c>
       <c r="B32" s="2">
@@ -1449,12 +1454,12 @@
       <c r="G32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>44684</v>
       </c>
       <c r="B33" s="2">
@@ -1475,12 +1480,12 @@
       <c r="G33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>44685</v>
       </c>
       <c r="B34" s="2">
@@ -1501,12 +1506,12 @@
       <c r="G34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>44685</v>
       </c>
       <c r="B35" s="2">
@@ -1527,12 +1532,12 @@
       <c r="G35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>44686</v>
       </c>
       <c r="B36" s="2">
@@ -1553,12 +1558,12 @@
       <c r="G36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>44686</v>
       </c>
       <c r="B37" s="2">
@@ -1579,12 +1584,12 @@
       <c r="G37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>44687</v>
       </c>
       <c r="B38" s="2">
@@ -1605,12 +1610,12 @@
       <c r="G38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>44687</v>
       </c>
       <c r="B39" s="2">
@@ -1631,12 +1636,12 @@
       <c r="G39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>44689</v>
       </c>
       <c r="B40" s="2">
@@ -1657,12 +1662,12 @@
       <c r="G40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>44689</v>
       </c>
       <c r="B41" s="2">
@@ -1683,12 +1688,12 @@
       <c r="G41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>44690</v>
       </c>
       <c r="B42" s="2">
@@ -1709,12 +1714,12 @@
       <c r="G42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>44690</v>
       </c>
       <c r="B43" s="2">
@@ -1735,12 +1740,12 @@
       <c r="G43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>44691</v>
       </c>
       <c r="B44" s="2">
@@ -1761,12 +1766,12 @@
       <c r="G44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A45" s="14">
+      <c r="A45" s="13">
         <v>44691</v>
       </c>
       <c r="B45" s="6">
@@ -1787,7 +1792,7 @@
       <c r="G45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="11" t="s">
         <v>13</v>
       </c>
     </row>
